--- a/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
+++ b/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Source\Repos\Diploma\Diploma-Wolczok\PrototipoMundoTravel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Mensajes-Titulo" sheetId="1" r:id="rId1"/>
     <sheet name="Excepcion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Mensaje_1</t>
   </si>
@@ -157,6 +152,24 @@
   </si>
   <si>
     <t>Base de Datos Inexistente</t>
+  </si>
+  <si>
+    <t>Excepcion_11</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_11</t>
+  </si>
+  <si>
+    <t>El Monto de pago excede el Monto de la Reserva.</t>
+  </si>
+  <si>
+    <t>Monto Excedido</t>
+  </si>
+  <si>
+    <t>El password es demasiado corto</t>
+  </si>
+  <si>
+    <t>Password Erroneo</t>
   </si>
 </sst>
 </file>
@@ -254,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,10 +522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B22"/>
+  <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,6 +694,38 @@
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
+++ b/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Mensaje_1</t>
   </si>
@@ -170,6 +170,42 @@
   </si>
   <si>
     <t>Password Erroneo</t>
+  </si>
+  <si>
+    <t>Excepcion_12</t>
+  </si>
+  <si>
+    <t>La fecha ingresada debe ser mayor al día de hoy</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_12</t>
+  </si>
+  <si>
+    <t>Fecha Erronea</t>
+  </si>
+  <si>
+    <t>Excepcion_13</t>
+  </si>
+  <si>
+    <t>El origen debe ser diferente al destino.</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_13</t>
+  </si>
+  <si>
+    <t>Error de Carga</t>
+  </si>
+  <si>
+    <t>Excepcion_14</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_14</t>
+  </si>
+  <si>
+    <t>Se ha producido un error al realizar la eliminación</t>
+  </si>
+  <si>
+    <t>Error de Eliminación</t>
   </si>
 </sst>
 </file>
@@ -479,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B26"/>
+  <dimension ref="A3:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,6 +762,54 @@
         <v>49</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
+++ b/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Mensaje_1</t>
   </si>
@@ -206,6 +206,54 @@
   </si>
   <si>
     <t>Error de Eliminación</t>
+  </si>
+  <si>
+    <t>Excepcion_15</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_15</t>
+  </si>
+  <si>
+    <t>Excepcion_16</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_16</t>
+  </si>
+  <si>
+    <t>Se ha producido un error al realizar el backup</t>
+  </si>
+  <si>
+    <t>Se ha producido un error al realizar el restore</t>
+  </si>
+  <si>
+    <t>Error Backup</t>
+  </si>
+  <si>
+    <t>Error Restore</t>
+  </si>
+  <si>
+    <t>Excepcion_17</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_17</t>
+  </si>
+  <si>
+    <t>Se ha producido un error al generar la base de datos</t>
+  </si>
+  <si>
+    <t>Error en Generación de BD</t>
+  </si>
+  <si>
+    <t>Excepcion_18</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_18</t>
+  </si>
+  <si>
+    <t>Se ha producido un error al realizar la modificación</t>
+  </si>
+  <si>
+    <t>Error en Modificacion</t>
   </si>
 </sst>
 </file>
@@ -515,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B32"/>
+  <dimension ref="A3:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,6 +858,70 @@
         <v>61</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
+++ b/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Source\Repos\Diploma\Diploma-Wolczok\PrototipoMundoTravel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Mensaje_1</t>
   </si>
@@ -254,6 +259,18 @@
   </si>
   <si>
     <t>Error en Modificacion</t>
+  </si>
+  <si>
+    <t>Excepcion_19</t>
+  </si>
+  <si>
+    <t>El nombre ingresado ya existe.</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_19</t>
+  </si>
+  <si>
+    <t>Error en Nombre</t>
   </si>
 </sst>
 </file>
@@ -563,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,10 +623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B40"/>
+  <dimension ref="A3:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +939,22 @@
         <v>77</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
+++ b/Diploma-Wolczok/PrototipoMundoTravel/Mensajes y Excepciones.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Source\Repos\Diploma\Diploma-Wolczok\PrototipoMundoTravel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Mensaje_1</t>
   </si>
@@ -271,6 +266,12 @@
   </si>
   <si>
     <t>Error en Nombre</t>
+  </si>
+  <si>
+    <t>Excepcion_20</t>
+  </si>
+  <si>
+    <t>Excepcion_Titulo_20</t>
   </si>
 </sst>
 </file>
@@ -580,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,339 +624,582 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B42"/>
+  <dimension ref="A3:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>302</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>303</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>304</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>305</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>306</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>307</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>308</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>309</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>310</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>311</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>312</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>313</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>314</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>315</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>316</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>317</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>318</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>319</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>321</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>322</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>323</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>324</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>325</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>326</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>327</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>328</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>329</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>330</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>331</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>332</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>333</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>334</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>335</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>336</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>337</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>338</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>339</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:C42">
+    <sortCondition ref="A3:A42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>